--- a/Outputs/3. Prosumer percentage/Base Cases/100/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Base Cases/100/Output_0_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1192870.454836785</v>
+        <v>1192870.454836786</v>
       </c>
     </row>
     <row r="7">
@@ -26335,22 +26335,22 @@
         <v>525790.9199777954</v>
       </c>
       <c r="J2" t="n">
-        <v>436303.3390498926</v>
+        <v>436303.3390498925</v>
       </c>
       <c r="K2" t="n">
         <v>523898.4668372231</v>
       </c>
       <c r="L2" t="n">
-        <v>533744.10127517</v>
+        <v>533744.1012751701</v>
       </c>
       <c r="M2" t="n">
-        <v>533744.10127517</v>
+        <v>533744.1012751701</v>
       </c>
       <c r="N2" t="n">
-        <v>533744.10127517</v>
+        <v>533744.1012751701</v>
       </c>
       <c r="O2" t="n">
-        <v>436303.3390498926</v>
+        <v>436303.3390498925</v>
       </c>
       <c r="P2" t="n">
         <v>247538.5746241431</v>
@@ -26424,19 +26424,19 @@
         <v>299023.995811336</v>
       </c>
       <c r="E4" t="n">
-        <v>280081.5545038177</v>
+        <v>280081.5545038176</v>
       </c>
       <c r="F4" t="n">
-        <v>297779.839842186</v>
+        <v>297779.8398421858</v>
       </c>
       <c r="G4" t="n">
-        <v>300104.1457560303</v>
+        <v>300104.1457560302</v>
       </c>
       <c r="H4" t="n">
-        <v>300104.1457560303</v>
+        <v>300104.1457560302</v>
       </c>
       <c r="I4" t="n">
-        <v>300104.1457560303</v>
+        <v>300104.1457560302</v>
       </c>
       <c r="J4" t="n">
         <v>249027.5808901401</v>
@@ -26457,7 +26457,7 @@
         <v>249027.5808901401</v>
       </c>
       <c r="P4" t="n">
-        <v>141286.8683285384</v>
+        <v>141286.8683285383</v>
       </c>
     </row>
     <row r="5">
@@ -26522,16 +26522,16 @@
         <v>190533.515711704</v>
       </c>
       <c r="C6" t="n">
-        <v>191179.0357461656</v>
+        <v>191179.0357461657</v>
       </c>
       <c r="D6" t="n">
-        <v>191179.0357461656</v>
+        <v>191179.0357461657</v>
       </c>
       <c r="E6" t="n">
-        <v>-102207.2006996253</v>
+        <v>-102207.2006996251</v>
       </c>
       <c r="F6" t="n">
-        <v>156296.0085376333</v>
+        <v>156296.0085376334</v>
       </c>
       <c r="G6" t="n">
         <v>185604.7625949733</v>
@@ -26543,25 +26543,25 @@
         <v>191705.8101497344</v>
       </c>
       <c r="J6" t="n">
-        <v>-25442.93183093875</v>
+        <v>-25442.93183093877</v>
       </c>
       <c r="K6" t="n">
-        <v>65289.43912335643</v>
+        <v>65289.43912335649</v>
       </c>
       <c r="L6" t="n">
-        <v>170535.5613390425</v>
+        <v>170535.5613390426</v>
       </c>
       <c r="M6" t="n">
-        <v>193620.3486833889</v>
+        <v>193620.348683389</v>
       </c>
       <c r="N6" t="n">
-        <v>193620.3486833889</v>
+        <v>193620.348683389</v>
       </c>
       <c r="O6" t="n">
-        <v>83195.24558413548</v>
+        <v>83195.24558413547</v>
       </c>
       <c r="P6" t="n">
-        <v>95417.15778490853</v>
+        <v>95417.1577849086</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Base Cases/100/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Base Cases/100/Output_0_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1192870.454836786</v>
+        <v>1161943.262425547</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1588590.420288415</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4330513.32814735</v>
+        <v>4536306.814155112</v>
       </c>
     </row>
     <row r="11">
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>67.44667046374036</v>
+        <v>24.65272171708995</v>
       </c>
       <c r="C11" t="n">
-        <v>79.17114377209259</v>
+        <v>36.37719502544218</v>
       </c>
       <c r="D11" t="n">
-        <v>76.96078266098158</v>
+        <v>34.16683391433116</v>
       </c>
       <c r="E11" t="n">
-        <v>74.84709307696943</v>
+        <v>32.05314433031901</v>
       </c>
       <c r="F11" t="n">
-        <v>68.998850978566</v>
+        <v>26.20490223191558</v>
       </c>
       <c r="G11" t="n">
-        <v>42.79394874665041</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>4.400876249193402</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>46.21699572675868</v>
+        <v>3.423046980108268</v>
       </c>
       <c r="X11" t="n">
-        <v>60.36113447016407</v>
+        <v>17.56718572351366</v>
       </c>
       <c r="Y11" t="n">
-        <v>49.61335814702477</v>
+        <v>6.819409400374354</v>
       </c>
     </row>
     <row r="12">
@@ -23729,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17.83331231671559</v>
+        <v>21.22967473698168</v>
       </c>
       <c r="C17" t="n">
-        <v>29.55778562506782</v>
+        <v>32.95414804533391</v>
       </c>
       <c r="D17" t="n">
-        <v>27.34742451395681</v>
+        <v>30.7437869342229</v>
       </c>
       <c r="E17" t="n">
-        <v>25.23373492994466</v>
+        <v>28.63009735021075</v>
       </c>
       <c r="F17" t="n">
-        <v>19.38549283154123</v>
+        <v>22.78185525180731</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23795,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>10.74777632313931</v>
+        <v>14.14413874340539</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>3.396362420266087</v>
       </c>
     </row>
     <row r="18">
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17.83331231671559</v>
+        <v>21.22967473698168</v>
       </c>
       <c r="C20" t="n">
-        <v>29.55778562506782</v>
+        <v>32.95414804533391</v>
       </c>
       <c r="D20" t="n">
-        <v>27.34742451395681</v>
+        <v>30.7437869342229</v>
       </c>
       <c r="E20" t="n">
-        <v>25.23373492994466</v>
+        <v>28.63009735021075</v>
       </c>
       <c r="F20" t="n">
-        <v>19.38549283154123</v>
+        <v>22.78185525180731</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>10.74777632313931</v>
+        <v>14.14413874340539</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>3.396362420266087</v>
       </c>
     </row>
     <row r="21">
@@ -24203,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>17.83331231671559</v>
+        <v>21.22967473698168</v>
       </c>
       <c r="C23" t="n">
-        <v>29.55778562506782</v>
+        <v>32.95414804533391</v>
       </c>
       <c r="D23" t="n">
-        <v>27.34742451395681</v>
+        <v>30.7437869342229</v>
       </c>
       <c r="E23" t="n">
-        <v>25.23373492994466</v>
+        <v>28.63009735021075</v>
       </c>
       <c r="F23" t="n">
-        <v>19.38549283154123</v>
+        <v>22.78185525180731</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>10.74777632313931</v>
+        <v>14.14413874340539</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>3.396362420266087</v>
       </c>
     </row>
     <row r="24">
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>135.7977217688428</v>
+        <v>24.65272171708995</v>
       </c>
       <c r="C26" t="n">
-        <v>147.522195077195</v>
+        <v>36.37719502544218</v>
       </c>
       <c r="D26" t="n">
-        <v>145.311833966084</v>
+        <v>34.16683391433116</v>
       </c>
       <c r="E26" t="n">
-        <v>143.1981443820719</v>
+        <v>32.05314433031901</v>
       </c>
       <c r="F26" t="n">
-        <v>137.3499022836684</v>
+        <v>26.20490223191558</v>
       </c>
       <c r="G26" t="n">
-        <v>111.1450000517528</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24500,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>72.75192755429583</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>114.5680470318611</v>
+        <v>3.423046980108268</v>
       </c>
       <c r="X26" t="n">
-        <v>128.7121857752665</v>
+        <v>17.56718572351366</v>
       </c>
       <c r="Y26" t="n">
-        <v>117.9644094521272</v>
+        <v>6.819409400374354</v>
       </c>
     </row>
     <row r="27">
@@ -24677,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>21.22967473698168</v>
+        <v>24.65272171708995</v>
       </c>
       <c r="C29" t="n">
-        <v>32.95414804533391</v>
+        <v>36.37719502544218</v>
       </c>
       <c r="D29" t="n">
-        <v>30.7437869342229</v>
+        <v>34.16683391433116</v>
       </c>
       <c r="E29" t="n">
-        <v>28.63009735021075</v>
+        <v>32.05314433031901</v>
       </c>
       <c r="F29" t="n">
-        <v>22.78185525180731</v>
+        <v>26.20490223191558</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24740,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>3.423046980108268</v>
       </c>
       <c r="X29" t="n">
-        <v>14.14413874340539</v>
+        <v>17.56718572351366</v>
       </c>
       <c r="Y29" t="n">
-        <v>3.396362420266087</v>
+        <v>6.819409400374354</v>
       </c>
     </row>
     <row r="30">
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>21.22967473698168</v>
       </c>
       <c r="C32" t="n">
-        <v>11.72447330835223</v>
+        <v>32.95414804533391</v>
       </c>
       <c r="D32" t="n">
-        <v>9.514112197241218</v>
+        <v>30.7437869342229</v>
       </c>
       <c r="E32" t="n">
-        <v>7.400422613229068</v>
+        <v>28.63009735021075</v>
       </c>
       <c r="F32" t="n">
-        <v>1.552180514825636</v>
+        <v>22.78185525180731</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24980,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>14.14413874340539</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>3.396362420266087</v>
       </c>
     </row>
     <row r="33">
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>21.22967473698168</v>
       </c>
       <c r="C35" t="n">
-        <v>11.72447330835223</v>
+        <v>32.95414804533391</v>
       </c>
       <c r="D35" t="n">
-        <v>9.514112197241218</v>
+        <v>30.7437869342229</v>
       </c>
       <c r="E35" t="n">
-        <v>7.400422613229068</v>
+        <v>28.63009735021075</v>
       </c>
       <c r="F35" t="n">
-        <v>1.552180514825636</v>
+        <v>22.78185525180731</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25217,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>14.14413874340539</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>3.396362420266087</v>
       </c>
     </row>
     <row r="36">
@@ -25388,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>21.22967473698168</v>
       </c>
       <c r="C38" t="n">
-        <v>11.72447330835223</v>
+        <v>32.95414804533391</v>
       </c>
       <c r="D38" t="n">
-        <v>9.514112197241218</v>
+        <v>30.7437869342229</v>
       </c>
       <c r="E38" t="n">
-        <v>7.400422613229068</v>
+        <v>28.63009735021075</v>
       </c>
       <c r="F38" t="n">
-        <v>1.552180514825636</v>
+        <v>22.78185525180731</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>14.14413874340539</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>3.396362420266087</v>
       </c>
     </row>
     <row r="39">
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>135.7977217688428</v>
+        <v>24.65272171708995</v>
       </c>
       <c r="C41" t="n">
-        <v>147.522195077195</v>
+        <v>36.37719502544218</v>
       </c>
       <c r="D41" t="n">
-        <v>145.311833966084</v>
+        <v>34.16683391433116</v>
       </c>
       <c r="E41" t="n">
-        <v>143.1981443820719</v>
+        <v>32.05314433031901</v>
       </c>
       <c r="F41" t="n">
-        <v>137.3499022836684</v>
+        <v>26.20490223191558</v>
       </c>
       <c r="G41" t="n">
-        <v>111.1450000517528</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25685,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>72.75192755429583</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>114.5680470318611</v>
+        <v>3.423046980108268</v>
       </c>
       <c r="X41" t="n">
-        <v>128.7121857752665</v>
+        <v>17.56718572351366</v>
       </c>
       <c r="Y41" t="n">
-        <v>117.9644094521272</v>
+        <v>6.819409400374354</v>
       </c>
     </row>
     <row r="42">
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>293.1597175473543</v>
+        <v>24.65272171708995</v>
       </c>
       <c r="C44" t="n">
-        <v>304.8841908557065</v>
+        <v>36.37719502544218</v>
       </c>
       <c r="D44" t="n">
-        <v>302.6738297445955</v>
+        <v>34.16683391433116</v>
       </c>
       <c r="E44" t="n">
-        <v>300.5601401605834</v>
+        <v>32.05314433031901</v>
       </c>
       <c r="F44" t="n">
-        <v>294.7118980621799</v>
+        <v>26.20490223191558</v>
       </c>
       <c r="G44" t="n">
-        <v>268.5069958302644</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>157.3619957785115</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>88.98969762298736</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>127.7532224234489</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>230.1139233328073</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>271.9300428103726</v>
+        <v>3.423046980108268</v>
       </c>
       <c r="X44" t="n">
-        <v>286.074181553778</v>
+        <v>17.56718572351366</v>
       </c>
       <c r="Y44" t="n">
-        <v>275.3264052306387</v>
+        <v>6.819409400374354</v>
       </c>
     </row>
     <row r="45">
@@ -25998,16 +26000,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>45.69632429732698</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>68.24948552591624</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>54.59266949143353</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>24.44190417080441</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>61.02357529909284</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>41.95923716890292</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>35.34235563778813</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>39.18356647906572</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>46.06312626515694</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>35.05850499172621</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>9.626295333824828</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>28.77209778227891</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>114.5437947246249</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>146.7718135067213</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>155.2090958155694</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>140.429283136867</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>114.0609798872173</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.26861674632841</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>368033.0819165655</v>
+        <v>391289.0028902176</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>394343.1899833466</v>
+        <v>392923.8501279173</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>394343.1899833466</v>
+        <v>392923.8501279173</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>394343.1899833466</v>
+        <v>392923.8501279173</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>327227.5042874193</v>
+        <v>391289.0028902176</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>392923.8501279173</v>
+        <v>391289.0028902176</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>400308.0759563776</v>
+        <v>392923.8501279173</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>400308.0759563776</v>
+        <v>392923.8501279173</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>400308.0759563776</v>
+        <v>392923.8501279173</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>327227.5042874193</v>
+        <v>391289.0028902176</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>185653.9309681073</v>
+        <v>391289.0028902176</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>523898.4668372231</v>
       </c>
       <c r="E2" t="n">
-        <v>490710.7758887541</v>
+        <v>521718.6705202902</v>
       </c>
       <c r="F2" t="n">
         <v>521718.6705202902</v>
       </c>
       <c r="G2" t="n">
-        <v>525790.9199777954</v>
+        <v>523898.4668372231</v>
       </c>
       <c r="H2" t="n">
-        <v>525790.9199777954</v>
+        <v>523898.4668372231</v>
       </c>
       <c r="I2" t="n">
-        <v>525790.9199777954</v>
+        <v>523898.4668372231</v>
       </c>
       <c r="J2" t="n">
-        <v>436303.3390498925</v>
+        <v>521718.6705202902</v>
       </c>
       <c r="K2" t="n">
+        <v>521718.6705202902</v>
+      </c>
+      <c r="L2" t="n">
         <v>523898.4668372231</v>
       </c>
-      <c r="L2" t="n">
-        <v>533744.1012751701</v>
-      </c>
       <c r="M2" t="n">
-        <v>533744.1012751701</v>
+        <v>523898.4668372231</v>
       </c>
       <c r="N2" t="n">
-        <v>533744.1012751701</v>
+        <v>523898.4668372231</v>
       </c>
       <c r="O2" t="n">
-        <v>436303.3390498925</v>
+        <v>521718.6705202902</v>
       </c>
       <c r="P2" t="n">
-        <v>247538.5746241431</v>
+        <v>521718.6705202902</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>283026.4034185931</v>
+        <v>317261.5624159134</v>
       </c>
       <c r="F3" t="n">
-        <v>34235.15899732031</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6101.047554761089</v>
+        <v>3383.95761854822</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>188654.8758568913</v>
+        <v>314523.1248318268</v>
       </c>
       <c r="K3" t="n">
-        <v>125889.5966228092</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>23084.78734434643</v>
+        <v>6122.395202634834</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>80016.69844181706</v>
+        <v>311784.6872477402</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>299023.995811336</v>
       </c>
       <c r="E4" t="n">
-        <v>280081.5545038176</v>
+        <v>297779.8398421858</v>
       </c>
       <c r="F4" t="n">
         <v>297779.8398421858</v>
       </c>
       <c r="G4" t="n">
-        <v>300104.1457560302</v>
+        <v>299023.995811336</v>
       </c>
       <c r="H4" t="n">
-        <v>300104.1457560302</v>
+        <v>299023.995811336</v>
       </c>
       <c r="I4" t="n">
-        <v>300104.1457560302</v>
+        <v>299023.995811336</v>
       </c>
       <c r="J4" t="n">
-        <v>249027.5808901401</v>
+        <v>297779.8398421858</v>
       </c>
       <c r="K4" t="n">
+        <v>297779.8398421858</v>
+      </c>
+      <c r="L4" t="n">
         <v>299023.995811336</v>
       </c>
-      <c r="L4" t="n">
-        <v>304643.5597865963</v>
-      </c>
       <c r="M4" t="n">
-        <v>304643.5597865963</v>
+        <v>299023.995811336</v>
       </c>
       <c r="N4" t="n">
-        <v>304643.5597865963</v>
+        <v>299023.995811336</v>
       </c>
       <c r="O4" t="n">
-        <v>249027.5808901401</v>
+        <v>297779.8398421858</v>
       </c>
       <c r="P4" t="n">
-        <v>141286.8683285383</v>
+        <v>297779.8398421858</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33695.43527972145</v>
       </c>
       <c r="E5" t="n">
-        <v>29810.01866596857</v>
+        <v>33407.66314315072</v>
       </c>
       <c r="F5" t="n">
         <v>33407.66314315072</v>
       </c>
       <c r="G5" t="n">
-        <v>33980.96407203079</v>
+        <v>33695.43527972145</v>
       </c>
       <c r="H5" t="n">
-        <v>33980.96407203079</v>
+        <v>33695.43527972145</v>
       </c>
       <c r="I5" t="n">
-        <v>33980.96407203079</v>
+        <v>33695.43527972145</v>
       </c>
       <c r="J5" t="n">
-        <v>24063.81413379991</v>
+        <v>33407.66314315072</v>
       </c>
       <c r="K5" t="n">
+        <v>33407.66314315072</v>
+      </c>
+      <c r="L5" t="n">
         <v>33695.43527972145</v>
       </c>
-      <c r="L5" t="n">
-        <v>35480.19280518476</v>
-      </c>
       <c r="M5" t="n">
-        <v>35480.19280518476</v>
+        <v>33695.43527972145</v>
       </c>
       <c r="N5" t="n">
-        <v>35480.19280518476</v>
+        <v>33695.43527972145</v>
       </c>
       <c r="O5" t="n">
-        <v>24063.81413379991</v>
+        <v>33407.66314315072</v>
       </c>
       <c r="P5" t="n">
-        <v>10834.54851069623</v>
+        <v>33407.66314315072</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>191179.0357461657</v>
       </c>
       <c r="E6" t="n">
-        <v>-102207.2006996251</v>
+        <v>-126730.3948809597</v>
       </c>
       <c r="F6" t="n">
-        <v>156296.0085376334</v>
+        <v>190531.1675349537</v>
       </c>
       <c r="G6" t="n">
-        <v>185604.7625949733</v>
+        <v>187795.0781276174</v>
       </c>
       <c r="H6" t="n">
-        <v>191705.8101497344</v>
+        <v>191179.0357461657</v>
       </c>
       <c r="I6" t="n">
-        <v>191705.8101497344</v>
+        <v>191179.0357461657</v>
       </c>
       <c r="J6" t="n">
-        <v>-25442.93183093877</v>
+        <v>-123991.9572968731</v>
       </c>
       <c r="K6" t="n">
-        <v>65289.43912335649</v>
+        <v>190531.1675349537</v>
       </c>
       <c r="L6" t="n">
-        <v>170535.5613390426</v>
+        <v>185056.6405435308</v>
       </c>
       <c r="M6" t="n">
-        <v>193620.348683389</v>
+        <v>191179.0357461657</v>
       </c>
       <c r="N6" t="n">
-        <v>193620.348683389</v>
+        <v>191179.0357461657</v>
       </c>
       <c r="O6" t="n">
-        <v>83195.24558413547</v>
+        <v>-121253.5197127866</v>
       </c>
       <c r="P6" t="n">
-        <v>95417.1577849086</v>
+        <v>190531.1675349537</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400.806900043077</v>
       </c>
       <c r="E2" t="n">
-        <v>354.5899043163183</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="F2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="G2" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
       <c r="H2" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
       <c r="I2" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
       <c r="J2" t="n">
-        <v>286.2388530112159</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="K2" t="n">
+        <v>397.3838530629687</v>
+      </c>
+      <c r="L2" t="n">
         <v>400.806900043077</v>
       </c>
-      <c r="L2" t="n">
-        <v>422.0365747800587</v>
-      </c>
       <c r="M2" t="n">
-        <v>422.0365747800587</v>
+        <v>400.806900043077</v>
       </c>
       <c r="N2" t="n">
-        <v>422.0365747800587</v>
+        <v>400.806900043077</v>
       </c>
       <c r="O2" t="n">
-        <v>286.2388530112159</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="P2" t="n">
-        <v>128.8768572327044</v>
+        <v>397.3838530629687</v>
       </c>
     </row>
     <row r="3">
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>353.7830042732413</v>
+        <v>396.5769530198917</v>
       </c>
       <c r="F2" t="n">
-        <v>42.79394874665039</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.626309443451362</v>
+        <v>4.229947023185275</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>235.8185948211141</v>
+        <v>393.1539060397835</v>
       </c>
       <c r="K2" t="n">
-        <v>157.3619957785115</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.85598418043304</v>
+        <v>7.652994003293543</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>100.0208730522713</v>
+        <v>389.7308590596753</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>353.7830042732413</v>
+        <v>396.5769530198917</v>
       </c>
       <c r="K2" t="n">
-        <v>42.79394874665039</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.626309443451362</v>
+        <v>4.229947023185275</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>235.8185948211141</v>
+        <v>393.1539060397835</v>
       </c>
       <c r="P2" t="n">
-        <v>157.3619957785115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,22 +28089,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>354.5899043163183</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="C11" t="n">
-        <v>354.5899043163183</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="D11" t="n">
-        <v>354.5899043163183</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="E11" t="n">
-        <v>354.5899043163183</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="F11" t="n">
-        <v>354.5899043163183</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="G11" t="n">
-        <v>354.5899043163183</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -28147,16 +28149,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>354.5899043163183</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>354.5899043163183</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="X11" t="n">
-        <v>354.5899043163183</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="Y11" t="n">
-        <v>354.5899043163183</v>
+        <v>397.3838530629687</v>
       </c>
     </row>
     <row r="12">
@@ -28561,19 +28563,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
       <c r="C17" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
       <c r="D17" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
       <c r="E17" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
       <c r="F17" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -28627,10 +28629,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
     </row>
     <row r="18">
@@ -28798,19 +28800,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
       <c r="C20" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
       <c r="D20" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
       <c r="E20" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
       <c r="F20" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -28864,10 +28866,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
     </row>
     <row r="21">
@@ -29035,19 +29037,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
       <c r="C23" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
       <c r="D23" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
       <c r="E23" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
       <c r="F23" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -29101,10 +29103,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
     </row>
     <row r="24">
@@ -29272,22 +29274,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>286.2388530112159</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="C26" t="n">
-        <v>286.2388530112159</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="D26" t="n">
-        <v>286.2388530112159</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="E26" t="n">
-        <v>286.2388530112159</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="F26" t="n">
-        <v>286.2388530112159</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="G26" t="n">
-        <v>286.2388530112159</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
@@ -29332,16 +29334,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>286.2388530112159</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>286.2388530112159</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="X26" t="n">
-        <v>286.2388530112159</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="Y26" t="n">
-        <v>286.2388530112159</v>
+        <v>397.3838530629687</v>
       </c>
     </row>
     <row r="27">
@@ -29509,19 +29511,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>400.806900043077</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="C29" t="n">
-        <v>400.806900043077</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="D29" t="n">
-        <v>400.806900043077</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="E29" t="n">
-        <v>400.806900043077</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="F29" t="n">
-        <v>400.806900043077</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="G29" t="n">
         <v>397.3838530629687</v>
@@ -29572,13 +29574,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="X29" t="n">
-        <v>400.806900043077</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="Y29" t="n">
-        <v>400.806900043077</v>
+        <v>397.3838530629687</v>
       </c>
     </row>
     <row r="30">
@@ -29746,19 +29748,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>400.806900043077</v>
       </c>
       <c r="C32" t="n">
-        <v>422.0365747800587</v>
+        <v>400.806900043077</v>
       </c>
       <c r="D32" t="n">
-        <v>422.0365747800587</v>
+        <v>400.806900043077</v>
       </c>
       <c r="E32" t="n">
-        <v>422.0365747800587</v>
+        <v>400.806900043077</v>
       </c>
       <c r="F32" t="n">
-        <v>422.0365747800587</v>
+        <v>400.806900043077</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
@@ -29812,10 +29814,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>400.806900043077</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
     </row>
     <row r="33">
@@ -29983,19 +29985,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>400.806900043077</v>
       </c>
       <c r="C35" t="n">
-        <v>422.0365747800587</v>
+        <v>400.806900043077</v>
       </c>
       <c r="D35" t="n">
-        <v>422.0365747800587</v>
+        <v>400.806900043077</v>
       </c>
       <c r="E35" t="n">
-        <v>422.0365747800587</v>
+        <v>400.806900043077</v>
       </c>
       <c r="F35" t="n">
-        <v>422.0365747800587</v>
+        <v>400.806900043077</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -30049,10 +30051,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>400.806900043077</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
     </row>
     <row r="36">
@@ -30220,19 +30222,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>400.806900043077</v>
       </c>
       <c r="C38" t="n">
-        <v>422.0365747800587</v>
+        <v>400.806900043077</v>
       </c>
       <c r="D38" t="n">
-        <v>422.0365747800587</v>
+        <v>400.806900043077</v>
       </c>
       <c r="E38" t="n">
-        <v>422.0365747800587</v>
+        <v>400.806900043077</v>
       </c>
       <c r="F38" t="n">
-        <v>422.0365747800587</v>
+        <v>400.806900043077</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -30286,10 +30288,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>400.806900043077</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>400.806900043077</v>
       </c>
     </row>
     <row r="39">
@@ -30457,22 +30459,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>286.2388530112159</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="C41" t="n">
-        <v>286.2388530112159</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="D41" t="n">
-        <v>286.2388530112159</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="E41" t="n">
-        <v>286.2388530112159</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="F41" t="n">
-        <v>286.2388530112159</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="G41" t="n">
-        <v>286.2388530112159</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -30517,16 +30519,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>286.2388530112159</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>286.2388530112159</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="X41" t="n">
-        <v>286.2388530112159</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="Y41" t="n">
-        <v>286.2388530112159</v>
+        <v>397.3838530629687</v>
       </c>
     </row>
     <row r="42">
@@ -30694,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>128.8768572327044</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="C44" t="n">
-        <v>128.8768572327044</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="D44" t="n">
-        <v>128.8768572327044</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="E44" t="n">
-        <v>128.8768572327044</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="F44" t="n">
-        <v>128.8768572327044</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="G44" t="n">
-        <v>128.8768572327044</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>128.8768572327044</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30748,22 +30750,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>128.8768572327044</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>128.8768572327044</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>128.8768572327044</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>128.8768572327044</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="X44" t="n">
-        <v>128.8768572327044</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="Y44" t="n">
-        <v>128.8768572327044</v>
+        <v>397.3838530629687</v>
       </c>
     </row>
     <row r="45">
@@ -30830,16 +30832,16 @@
         <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
-        <v>128.8768572327044</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
-        <v>128.8768572327044</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>128.8768572327044</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
-        <v>128.8768572327044</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
         <v>125.2209214285714</v>
@@ -30852,25 +30854,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>128.8768572327044</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>128.8768572327044</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>128.8768572327044</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>128.8768572327044</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>128.8768572327044</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>128.8768572327044</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>128.8768572327044</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -30903,25 +30905,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>128.8768572327044</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>128.8768572327044</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>128.8768572327044</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>128.8768572327044</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>128.8768572327044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>128.8768572327044</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>128.8768572327044</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
